--- a/ProjectDataSheet.xlsx
+++ b/ProjectDataSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\School\Quarter 6\Enterprise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drp11\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Project Data Sheet</t>
   </si>
@@ -75,12 +75,6 @@
     <t>Food delivery convenience</t>
   </si>
   <si>
-    <t>Tradeoff Matrix</t>
-  </si>
-  <si>
-    <t>VIEW NEXT SHEET</t>
-  </si>
-  <si>
     <t>Capability</t>
   </si>
   <si>
@@ -168,13 +162,16 @@
     <t>Accept</t>
   </si>
   <si>
-    <t>Target</t>
-  </si>
-  <si>
     <t>Project Delay Cost per Month = Nothing</t>
   </si>
   <si>
     <t>Exploration Factor: 5</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -210,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -266,35 +263,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -581,7 +624,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,10 +634,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -653,43 +696,43 @@
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="3" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -706,87 +749,82 @@
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="10"/>
+      <c r="B20" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
+      <c r="B21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="B30" s="2"/>
     </row>
@@ -796,13 +834,13 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33" s="2"/>
     </row>
@@ -815,13 +853,13 @@
       <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A11:A17"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -833,72 +871,78 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="A1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProjectDataSheet.xlsx
+++ b/ProjectDataSheet.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Project Data Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="Trade-Off Matrix" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>Project Data Sheet</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Anyone who eats food</t>
+  </si>
+  <si>
+    <t>Some that don't eat food</t>
   </si>
 </sst>
 </file>
@@ -207,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -302,6 +308,43 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -312,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -338,6 +381,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -621,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,69 +693,131 @@
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="17"/>
+      <c r="D1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="D4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="D5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>11</v>
       </c>
@@ -703,29 +825,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="2" t="s">
         <v>26</v>
@@ -857,9 +979,12 @@
       <c r="B36" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A11:A17"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -870,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
